--- a/1.04.2024/source/1_18.xlsx
+++ b/1.04.2024/source/1_18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letkh\Documents\GitHub\Informatika23-24\1.04.2024\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A75A3E7-AC9E-45FD-B26F-8B1C571B2212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0036D2F-DEAB-4E27-8CD2-1C51429427FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="450" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W1" sqref="V1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,85 +1866,85 @@
         <v>51</v>
       </c>
       <c r="B23" s="5">
-        <f>MIN(A23,B22) + B2</f>
+        <f t="shared" ref="B23:S23" si="1">MIN(A23,B22) + B2</f>
         <v>123</v>
       </c>
       <c r="C23" s="5">
-        <f>MIN(B23,C22) + C2</f>
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="D23" s="5">
-        <f>MIN(C23,D22) + D2</f>
+        <f t="shared" si="1"/>
         <v>183</v>
       </c>
       <c r="E23" s="5">
-        <f>MIN(D23,E22) + E2</f>
+        <f t="shared" si="1"/>
         <v>214</v>
       </c>
       <c r="F23" s="5">
-        <f>MIN(E23,F22) + F2</f>
+        <f t="shared" si="1"/>
         <v>294</v>
       </c>
       <c r="G23" s="5">
-        <f>MIN(F23,G22) + G2</f>
+        <f t="shared" si="1"/>
         <v>296</v>
       </c>
       <c r="H23" s="5">
-        <f>MIN(G23,H22) + H2</f>
+        <f t="shared" si="1"/>
         <v>373</v>
       </c>
       <c r="I23" s="5">
-        <f>MIN(H23,I22) + I2</f>
+        <f t="shared" si="1"/>
         <v>396</v>
       </c>
       <c r="J23" s="5">
-        <f>MIN(I23,J22) + J2</f>
+        <f t="shared" si="1"/>
         <v>428</v>
       </c>
       <c r="K23" s="5">
-        <f>MIN(J23,K22) + K2</f>
+        <f t="shared" si="1"/>
         <v>472</v>
       </c>
       <c r="L23" s="5">
-        <f>MIN(K23,L22) + L2</f>
+        <f t="shared" si="1"/>
         <v>547</v>
       </c>
       <c r="M23" s="5">
-        <f>MIN(L23,M22) + M2</f>
+        <f t="shared" si="1"/>
         <v>562</v>
       </c>
       <c r="N23" s="5">
-        <f>MIN(M23,N22) + N2</f>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="O23" s="5">
-        <f>MIN(N23,O22) + O2</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="P23" s="5">
-        <f>MIN(O23,P22) + P2</f>
+        <f t="shared" si="1"/>
         <v>692</v>
       </c>
       <c r="Q23" s="5">
-        <f>MIN(P23,Q22) + Q2</f>
+        <f t="shared" si="1"/>
         <v>769</v>
       </c>
       <c r="R23" s="5">
-        <f>MIN(Q23,R22) + R2</f>
+        <f t="shared" si="1"/>
         <v>796</v>
       </c>
       <c r="S23" s="11">
-        <f>MIN(R23,S22) + S2</f>
+        <f t="shared" si="1"/>
         <v>812</v>
       </c>
       <c r="T23" s="6">
-        <f>MIN(T22) + T2</f>
+        <f t="shared" ref="T23:T30" si="2">MIN(T22) + T2</f>
         <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" ref="A24:A41" si="1">A3+A23</f>
+        <f t="shared" ref="A24:A41" si="3">A3+A23</f>
         <v>62</v>
       </c>
       <c r="B24" s="10">
@@ -1968,65 +1968,65 @@
         <v>212</v>
       </c>
       <c r="G24" s="5">
-        <f>MIN(F24,G23) + G3</f>
+        <f t="shared" ref="G24:S25" si="4">MIN(F24,G23) + G3</f>
         <v>280</v>
       </c>
       <c r="H24" s="5">
-        <f>MIN(G24,H23) + H3</f>
+        <f t="shared" si="4"/>
         <v>343</v>
       </c>
       <c r="I24" s="5">
-        <f>MIN(H24,I23) + I3</f>
+        <f t="shared" si="4"/>
         <v>408</v>
       </c>
       <c r="J24" s="5">
-        <f>MIN(I24,J23) + J3</f>
+        <f t="shared" si="4"/>
         <v>432</v>
       </c>
       <c r="K24" s="5">
-        <f>MIN(J24,K23) + K3</f>
+        <f t="shared" si="4"/>
         <v>459</v>
       </c>
       <c r="L24" s="5">
-        <f>MIN(K24,L23) + L3</f>
+        <f t="shared" si="4"/>
         <v>479</v>
       </c>
       <c r="M24" s="5">
-        <f>MIN(L24,M23) + M3</f>
+        <f t="shared" si="4"/>
         <v>517</v>
       </c>
       <c r="N24" s="5">
-        <f>MIN(M24,N23) + N3</f>
+        <f t="shared" si="4"/>
         <v>596</v>
       </c>
       <c r="O24" s="5">
-        <f>MIN(N24,O23) + O3</f>
+        <f t="shared" si="4"/>
         <v>677</v>
       </c>
       <c r="P24" s="5">
-        <f>MIN(O24,P23) + P3</f>
+        <f t="shared" si="4"/>
         <v>762</v>
       </c>
       <c r="Q24" s="5">
-        <f>MIN(P24,Q23) + Q3</f>
+        <f t="shared" si="4"/>
         <v>812</v>
       </c>
       <c r="R24" s="5">
-        <f>MIN(Q24,R23) + R3</f>
+        <f t="shared" si="4"/>
         <v>861</v>
       </c>
       <c r="S24" s="11">
-        <f>MIN(R24,S23) + S3</f>
+        <f t="shared" si="4"/>
         <v>859</v>
       </c>
       <c r="T24" s="6">
-        <f>MIN(T23) + T3</f>
+        <f t="shared" si="2"/>
         <v>944</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B25" s="5">
@@ -2050,81 +2050,81 @@
         <v>290</v>
       </c>
       <c r="G25" s="5">
-        <f>MIN(F25,G24) + G4</f>
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="H25" s="5">
-        <f>MIN(G25,H24) + H4</f>
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
       <c r="I25" s="5">
-        <f>MIN(H25,I24) + I4</f>
+        <f t="shared" si="4"/>
         <v>383</v>
       </c>
       <c r="J25" s="5">
-        <f>MIN(I25,J24) + J4</f>
+        <f t="shared" si="4"/>
         <v>407</v>
       </c>
       <c r="K25" s="5">
-        <f>MIN(J25,K24) + K4</f>
+        <f t="shared" si="4"/>
         <v>432</v>
       </c>
       <c r="L25" s="5">
-        <f>MIN(K25,L24) + L4</f>
+        <f t="shared" si="4"/>
         <v>461</v>
       </c>
       <c r="M25" s="5">
-        <f>MIN(L25,M24) + M4</f>
+        <f t="shared" si="4"/>
         <v>510</v>
       </c>
       <c r="N25" s="5">
-        <f>MIN(M25,N24) + N4</f>
+        <f t="shared" si="4"/>
         <v>577</v>
       </c>
       <c r="O25" s="5">
-        <f>MIN(N25,O24) + O4</f>
+        <f t="shared" si="4"/>
         <v>658</v>
       </c>
       <c r="P25" s="5">
-        <f>MIN(O25,P24) + P4</f>
+        <f t="shared" si="4"/>
         <v>743</v>
       </c>
       <c r="Q25" s="5">
-        <f>MIN(P25,Q24) + Q4</f>
+        <f t="shared" si="4"/>
         <v>798</v>
       </c>
       <c r="R25" s="5">
-        <f>MIN(Q25,R24) + R4</f>
+        <f t="shared" si="4"/>
         <v>834</v>
       </c>
       <c r="S25" s="11">
-        <f>MIN(R25,S24) + S4</f>
+        <f t="shared" si="4"/>
         <v>904</v>
       </c>
       <c r="T25" s="6">
-        <f>MIN(T24) + T4</f>
+        <f t="shared" si="2"/>
         <v>963</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B26" s="5">
-        <f>MIN(A26,B25) + B5</f>
+        <f t="shared" ref="B26:E27" si="5">MIN(A26,B25) + B5</f>
         <v>194</v>
       </c>
       <c r="C26" s="5">
-        <f>MIN(B26,C25) + C5</f>
+        <f t="shared" si="5"/>
         <v>226</v>
       </c>
       <c r="D26" s="5">
-        <f>MIN(C26,D25) + D5</f>
+        <f t="shared" si="5"/>
         <v>257</v>
       </c>
       <c r="E26" s="5">
-        <f>MIN(D26,E25) + E5</f>
+        <f t="shared" si="5"/>
         <v>284</v>
       </c>
       <c r="F26" s="10">
@@ -2148,65 +2148,65 @@
         <v>470</v>
       </c>
       <c r="K26" s="5">
-        <f>MIN(J26,K25) + K5</f>
+        <f t="shared" ref="K26:S27" si="6">MIN(J26,K25) + K5</f>
         <v>441</v>
       </c>
       <c r="L26" s="5">
-        <f>MIN(K26,L25) + L5</f>
+        <f t="shared" si="6"/>
         <v>453</v>
       </c>
       <c r="M26" s="5">
-        <f>MIN(L26,M25) + M5</f>
+        <f t="shared" si="6"/>
         <v>522</v>
       </c>
       <c r="N26" s="5">
-        <f>MIN(M26,N25) + N5</f>
+        <f t="shared" si="6"/>
         <v>603</v>
       </c>
       <c r="O26" s="5">
-        <f>MIN(N26,O25) + O5</f>
+        <f t="shared" si="6"/>
         <v>678</v>
       </c>
       <c r="P26" s="5">
-        <f>MIN(O26,P25) + P5</f>
+        <f t="shared" si="6"/>
         <v>741</v>
       </c>
       <c r="Q26" s="5">
-        <f>MIN(P26,Q25) + Q5</f>
+        <f t="shared" si="6"/>
         <v>820</v>
       </c>
       <c r="R26" s="5">
-        <f>MIN(Q26,R25) + R5</f>
+        <f t="shared" si="6"/>
         <v>876</v>
       </c>
       <c r="S26" s="11">
-        <f>MIN(R26,S25) + S5</f>
+        <f t="shared" si="6"/>
         <v>918</v>
       </c>
       <c r="T26" s="6">
-        <f>MIN(T25) + T5</f>
+        <f t="shared" si="2"/>
         <v>1011</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="B27" s="5">
-        <f>MIN(A27,B26) + B6</f>
+        <f t="shared" si="5"/>
         <v>208</v>
       </c>
       <c r="C27" s="5">
-        <f>MIN(B27,C26) + C6</f>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="D27" s="5">
-        <f>MIN(C27,D26) + D6</f>
+        <f t="shared" si="5"/>
         <v>275</v>
       </c>
       <c r="E27" s="5">
-        <f>MIN(D27,E26) + E6</f>
+        <f t="shared" si="5"/>
         <v>281</v>
       </c>
       <c r="F27" s="5">
@@ -2230,1192 +2230,1192 @@
         <v>372</v>
       </c>
       <c r="K27" s="5">
-        <f>MIN(J27,K26) + K6</f>
+        <f t="shared" si="6"/>
         <v>383</v>
       </c>
       <c r="L27" s="5">
-        <f>MIN(K27,L26) + L6</f>
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
       <c r="M27" s="5">
-        <f>MIN(L27,M26) + M6</f>
+        <f t="shared" si="6"/>
         <v>412</v>
       </c>
       <c r="N27" s="5">
-        <f>MIN(M27,N26) + N6</f>
+        <f t="shared" si="6"/>
         <v>491</v>
       </c>
       <c r="O27" s="5">
-        <f>MIN(N27,O26) + O6</f>
+        <f t="shared" si="6"/>
         <v>531</v>
       </c>
       <c r="P27" s="5">
-        <f>MIN(O27,P26) + P6</f>
+        <f t="shared" si="6"/>
         <v>613</v>
       </c>
       <c r="Q27" s="5">
-        <f>MIN(P27,Q26) + Q6</f>
+        <f t="shared" si="6"/>
         <v>650</v>
       </c>
       <c r="R27" s="5">
-        <f>MIN(Q27,R26) + R6</f>
+        <f t="shared" si="6"/>
         <v>721</v>
       </c>
       <c r="S27" s="11">
-        <f>MIN(R27,S26) + S6</f>
+        <f t="shared" si="6"/>
         <v>736</v>
       </c>
       <c r="T27" s="6">
-        <f>MIN(T26) + T6</f>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B28" s="5">
-        <f>MIN(A28,B27) + B7</f>
+        <f t="shared" ref="B28:B41" si="7">MIN(A28,B27) + B7</f>
         <v>228</v>
       </c>
       <c r="C28" s="5">
-        <f>MIN(B28,C27) + C7</f>
+        <f t="shared" ref="C28:C41" si="8">MIN(B28,C27) + C7</f>
         <v>231</v>
       </c>
       <c r="D28" s="11">
-        <f>MIN(C28,D27) + D7</f>
+        <f t="shared" ref="D28:D41" si="9">MIN(C28,D27) + D7</f>
         <v>238</v>
       </c>
       <c r="E28" s="5">
-        <f>MIN(,E27) + E7</f>
-        <v>77</v>
+        <f>MIN(E27) + E7</f>
+        <v>358</v>
       </c>
       <c r="F28" s="5">
-        <f>MIN(E28,F27) + F7</f>
-        <v>127</v>
+        <f t="shared" ref="F28:I30" si="10">MIN(E28,F27) + F7</f>
+        <v>372</v>
       </c>
       <c r="G28" s="5">
-        <f>MIN(F28,G27) + G7</f>
-        <v>143</v>
+        <f t="shared" si="10"/>
+        <v>351</v>
       </c>
       <c r="H28" s="5">
-        <f>MIN(G28,H27) + H7</f>
-        <v>150</v>
+        <f t="shared" si="10"/>
+        <v>358</v>
       </c>
       <c r="I28" s="5">
-        <f>MIN(H28,I27) + I7</f>
-        <v>163</v>
+        <f t="shared" si="10"/>
+        <v>371</v>
       </c>
       <c r="J28" s="10">
         <f>MIN(I28) + J7</f>
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="K28" s="10">
         <f>MIN(J28) + K7</f>
-        <v>181</v>
+        <v>389</v>
       </c>
       <c r="L28" s="10">
         <f>MIN(K28) + L7</f>
-        <v>200</v>
+        <v>408</v>
       </c>
       <c r="M28" s="10">
         <f>MIN(L28) + M7</f>
-        <v>214</v>
+        <v>422</v>
       </c>
       <c r="N28" s="10">
         <f>MIN(M28) + N7</f>
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="O28" s="5">
-        <f>MIN(N28,O27) + O7</f>
-        <v>365</v>
+        <f t="shared" ref="O28:O41" si="11">MIN(N28,O27) + O7</f>
+        <v>573</v>
       </c>
       <c r="P28" s="5">
-        <f>MIN(O28,P27) + P7</f>
-        <v>453</v>
+        <f t="shared" ref="P28:P41" si="12">MIN(O28,P27) + P7</f>
+        <v>661</v>
       </c>
       <c r="Q28" s="11">
-        <f>MIN(P28,Q27) + Q7</f>
-        <v>501</v>
+        <f t="shared" ref="Q28:Q41" si="13">MIN(P28,Q27) + Q7</f>
+        <v>698</v>
       </c>
       <c r="R28" s="5">
-        <f>MIN(R27) + R7</f>
+        <f t="shared" ref="R28:R35" si="14">MIN(R27) + R7</f>
         <v>770</v>
       </c>
       <c r="S28" s="11">
-        <f>MIN(R28,S27) + S7</f>
+        <f t="shared" ref="S28:S41" si="15">MIN(R28,S27) + S7</f>
         <v>779</v>
       </c>
       <c r="T28" s="6">
-        <f>MIN(T27) + T7</f>
+        <f t="shared" si="2"/>
         <v>1064</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="B29" s="5">
-        <f>MIN(A29,B28) + B8</f>
+        <f t="shared" si="7"/>
         <v>281</v>
       </c>
       <c r="C29" s="5">
-        <f>MIN(B29,C28) + C8</f>
+        <f t="shared" si="8"/>
         <v>262</v>
       </c>
       <c r="D29" s="11">
-        <f>MIN(C29,D28) + D8</f>
+        <f t="shared" si="9"/>
         <v>302</v>
       </c>
       <c r="E29" s="5">
-        <f>MIN(,E28) + E8</f>
-        <v>46</v>
+        <f t="shared" ref="E29:E35" si="16">MIN(E28) + E8</f>
+        <v>404</v>
       </c>
       <c r="F29" s="5">
-        <f>MIN(E29,F28) + F8</f>
-        <v>67</v>
+        <f t="shared" si="10"/>
+        <v>393</v>
       </c>
       <c r="G29" s="5">
-        <f>MIN(F29,G28) + G8</f>
-        <v>87</v>
+        <f t="shared" si="10"/>
+        <v>371</v>
       </c>
       <c r="H29" s="5">
-        <f>MIN(G29,H28) + H8</f>
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>371</v>
       </c>
       <c r="I29" s="5">
-        <f>MIN(H29,I28) + I8</f>
-        <v>119</v>
+        <f t="shared" si="10"/>
+        <v>390</v>
       </c>
       <c r="J29" s="5">
-        <f>MIN(I29,J28) + J8</f>
-        <v>124</v>
+        <f t="shared" ref="J29:N30" si="17">MIN(I29,J28) + J8</f>
+        <v>389</v>
       </c>
       <c r="K29" s="5">
-        <f>MIN(J29,K28) + K8</f>
-        <v>129</v>
+        <f t="shared" si="17"/>
+        <v>394</v>
       </c>
       <c r="L29" s="5">
-        <f>MIN(K29,L28) + L8</f>
-        <v>145</v>
+        <f t="shared" si="17"/>
+        <v>410</v>
       </c>
       <c r="M29" s="5">
-        <f>MIN(L29,M28) + M8</f>
-        <v>150</v>
+        <f t="shared" si="17"/>
+        <v>415</v>
       </c>
       <c r="N29" s="5">
-        <f>MIN(M29,N28) + N8</f>
-        <v>230</v>
+        <f t="shared" si="17"/>
+        <v>495</v>
       </c>
       <c r="O29" s="5">
-        <f>MIN(N29,O28) + O8</f>
-        <v>269</v>
+        <f t="shared" si="11"/>
+        <v>534</v>
       </c>
       <c r="P29" s="5">
-        <f>MIN(O29,P28) + P8</f>
-        <v>322</v>
+        <f t="shared" si="12"/>
+        <v>587</v>
       </c>
       <c r="Q29" s="11">
-        <f>MIN(P29,Q28) + Q8</f>
-        <v>382</v>
+        <f t="shared" si="13"/>
+        <v>647</v>
       </c>
       <c r="R29" s="5">
-        <f>MIN(R28) + R8</f>
+        <f t="shared" si="14"/>
         <v>839</v>
       </c>
       <c r="S29" s="11">
-        <f>MIN(R29,S28) + S8</f>
+        <f t="shared" si="15"/>
         <v>798</v>
       </c>
       <c r="T29" s="6">
-        <f>MIN(T28) + T8</f>
+        <f t="shared" si="2"/>
         <v>1082</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="B30" s="5">
-        <f>MIN(A30,B29) + B9</f>
+        <f t="shared" si="7"/>
         <v>331</v>
       </c>
       <c r="C30" s="5">
-        <f>MIN(B30,C29) + C9</f>
+        <f t="shared" si="8"/>
         <v>288</v>
       </c>
       <c r="D30" s="11">
-        <f>MIN(C30,D29) + D9</f>
+        <f t="shared" si="9"/>
         <v>308</v>
       </c>
       <c r="E30" s="5">
-        <f>MIN(,E29) + E9</f>
-        <v>23</v>
+        <f t="shared" si="16"/>
+        <v>427</v>
       </c>
       <c r="F30" s="5">
-        <f>MIN(E30,F29) + F9</f>
-        <v>81</v>
+        <f t="shared" si="10"/>
+        <v>451</v>
       </c>
       <c r="G30" s="5">
-        <f>MIN(F30,G29) + G9</f>
-        <v>96</v>
+        <f t="shared" si="10"/>
+        <v>386</v>
       </c>
       <c r="H30" s="5">
-        <f>MIN(G30,H29) + H9</f>
-        <v>104</v>
+        <f t="shared" si="10"/>
+        <v>379</v>
       </c>
       <c r="I30" s="5">
-        <f>MIN(H30,I29) + I9</f>
-        <v>124</v>
+        <f t="shared" si="10"/>
+        <v>399</v>
       </c>
       <c r="J30" s="5">
-        <f>MIN(I30,J29) + J9</f>
-        <v>139</v>
+        <f t="shared" si="17"/>
+        <v>404</v>
       </c>
       <c r="K30" s="5">
-        <f>MIN(J30,K29) + K9</f>
-        <v>136</v>
+        <f t="shared" si="17"/>
+        <v>401</v>
       </c>
       <c r="L30" s="5">
-        <f>MIN(K30,L29) + L9</f>
-        <v>151</v>
+        <f t="shared" si="17"/>
+        <v>416</v>
       </c>
       <c r="M30" s="5">
-        <f>MIN(L30,M29) + M9</f>
-        <v>169</v>
+        <f t="shared" si="17"/>
+        <v>434</v>
       </c>
       <c r="N30" s="5">
-        <f>MIN(M30,N29) + N9</f>
-        <v>224</v>
+        <f t="shared" si="17"/>
+        <v>489</v>
       </c>
       <c r="O30" s="5">
-        <f>MIN(N30,O29) + O9</f>
-        <v>318</v>
+        <f t="shared" si="11"/>
+        <v>583</v>
       </c>
       <c r="P30" s="5">
-        <f>MIN(O30,P29) + P9</f>
-        <v>391</v>
+        <f t="shared" si="12"/>
+        <v>656</v>
       </c>
       <c r="Q30" s="11">
-        <f>MIN(P30,Q29) + Q9</f>
-        <v>468</v>
+        <f t="shared" si="13"/>
+        <v>733</v>
       </c>
       <c r="R30" s="5">
-        <f>MIN(R29) + R9</f>
+        <f t="shared" si="14"/>
         <v>877</v>
       </c>
       <c r="S30" s="11">
-        <f>MIN(R30,S29) + S9</f>
+        <f t="shared" si="15"/>
         <v>834</v>
       </c>
       <c r="T30" s="6">
-        <f>MIN(T29) + T9</f>
+        <f t="shared" si="2"/>
         <v>1154</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>349</v>
       </c>
       <c r="B31" s="5">
-        <f>MIN(A31,B30) + B10</f>
+        <f t="shared" si="7"/>
         <v>390</v>
       </c>
       <c r="C31" s="5">
-        <f>MIN(B31,C30) + C10</f>
+        <f t="shared" si="8"/>
         <v>384</v>
       </c>
       <c r="D31" s="11">
-        <f>MIN(C31,D30) + D10</f>
+        <f t="shared" si="9"/>
         <v>381</v>
       </c>
       <c r="E31" s="5">
-        <f>MIN(,E30) + E10</f>
-        <v>46</v>
+        <f t="shared" si="16"/>
+        <v>473</v>
       </c>
       <c r="F31" s="5">
-        <f>MIN(E31,F30) + F10</f>
-        <v>92</v>
+        <f t="shared" ref="F31:F41" si="18">MIN(E31,F30) + F10</f>
+        <v>497</v>
       </c>
       <c r="G31" s="5">
-        <f>MIN(F31,G30) + G10</f>
-        <v>104</v>
+        <f t="shared" ref="G31:G41" si="19">MIN(F31,G30) + G10</f>
+        <v>398</v>
       </c>
       <c r="H31" s="11">
-        <f>MIN(G31,H30) + H10</f>
-        <v>113</v>
+        <f t="shared" ref="H31:H41" si="20">MIN(G31,H30) + H10</f>
+        <v>388</v>
       </c>
       <c r="I31" s="5">
-        <f>MIN(I30) + I10</f>
-        <v>135</v>
+        <f t="shared" ref="I31:I38" si="21">MIN(I30) + I10</f>
+        <v>410</v>
       </c>
       <c r="J31" s="5">
-        <f>MIN(I31,J30) + J10</f>
-        <v>147</v>
+        <f t="shared" ref="J31:J41" si="22">MIN(I31,J30) + J10</f>
+        <v>416</v>
       </c>
       <c r="K31" s="5">
-        <f>MIN(J31,K30) + K10</f>
-        <v>148</v>
+        <f t="shared" ref="K31:K41" si="23">MIN(J31,K30) + K10</f>
+        <v>413</v>
       </c>
       <c r="L31" s="11">
-        <f>MIN(K31,L30) + L10</f>
-        <v>153</v>
+        <f t="shared" ref="L31:L41" si="24">MIN(K31,L30) + L10</f>
+        <v>418</v>
       </c>
       <c r="M31" s="5">
-        <f>MIN(M30) + M10</f>
-        <v>189</v>
+        <f t="shared" ref="M31:M38" si="25">MIN(M30) + M10</f>
+        <v>454</v>
       </c>
       <c r="N31" s="5">
-        <f>MIN(M31,N30) + N10</f>
-        <v>252</v>
+        <f t="shared" ref="N31:N41" si="26">MIN(M31,N30) + N10</f>
+        <v>517</v>
       </c>
       <c r="O31" s="5">
-        <f>MIN(N31,O30) + O10</f>
-        <v>309</v>
+        <f t="shared" si="11"/>
+        <v>574</v>
       </c>
       <c r="P31" s="5">
-        <f>MIN(O31,P30) + P10</f>
-        <v>328</v>
+        <f t="shared" si="12"/>
+        <v>593</v>
       </c>
       <c r="Q31" s="11">
-        <f>MIN(P31,Q30) + Q10</f>
-        <v>405</v>
+        <f t="shared" si="13"/>
+        <v>670</v>
       </c>
       <c r="R31" s="5">
-        <f>MIN(R30) + R10</f>
+        <f t="shared" si="14"/>
         <v>950</v>
       </c>
       <c r="S31" s="5">
-        <f>MIN(R31,S30) + S10</f>
+        <f t="shared" si="15"/>
         <v>899</v>
       </c>
       <c r="T31" s="6">
-        <f>MIN(S31,T30) + T10</f>
+        <f t="shared" ref="T31:T41" si="27">MIN(S31,T30) + T10</f>
         <v>927</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>418</v>
       </c>
       <c r="B32" s="5">
-        <f>MIN(A32,B31) + B11</f>
+        <f t="shared" si="7"/>
         <v>456</v>
       </c>
       <c r="C32" s="5">
-        <f>MIN(B32,C31) + C11</f>
+        <f t="shared" si="8"/>
         <v>463</v>
       </c>
       <c r="D32" s="11">
-        <f>MIN(C32,D31) + D11</f>
+        <f t="shared" si="9"/>
         <v>426</v>
       </c>
       <c r="E32" s="5">
-        <f>MIN(,E31) + E11</f>
-        <v>48</v>
+        <f t="shared" si="16"/>
+        <v>521</v>
       </c>
       <c r="F32" s="5">
-        <f>MIN(E32,F31) + F11</f>
-        <v>63</v>
+        <f t="shared" si="18"/>
+        <v>512</v>
       </c>
       <c r="G32" s="5">
-        <f>MIN(F32,G31) + G11</f>
-        <v>75</v>
+        <f t="shared" si="19"/>
+        <v>410</v>
       </c>
       <c r="H32" s="11">
-        <f>MIN(G32,H31) + H11</f>
-        <v>88</v>
+        <f t="shared" si="20"/>
+        <v>401</v>
       </c>
       <c r="I32" s="5">
-        <f>MIN(I31) + I11</f>
-        <v>142</v>
+        <f t="shared" si="21"/>
+        <v>417</v>
       </c>
       <c r="J32" s="5">
-        <f>MIN(I32,J31) + J11</f>
-        <v>154</v>
+        <f t="shared" si="22"/>
+        <v>428</v>
       </c>
       <c r="K32" s="5">
-        <f>MIN(J32,K31) + K11</f>
-        <v>159</v>
+        <f t="shared" si="23"/>
+        <v>424</v>
       </c>
       <c r="L32" s="11">
-        <f>MIN(K32,L31) + L11</f>
-        <v>160</v>
+        <f t="shared" si="24"/>
+        <v>425</v>
       </c>
       <c r="M32" s="5">
-        <f>MIN(M31) + M11</f>
-        <v>195</v>
+        <f t="shared" si="25"/>
+        <v>460</v>
       </c>
       <c r="N32" s="5">
-        <f>MIN(M32,N31) + N11</f>
-        <v>264</v>
+        <f t="shared" si="26"/>
+        <v>529</v>
       </c>
       <c r="O32" s="5">
-        <f>MIN(N32,O31) + O11</f>
-        <v>270</v>
+        <f t="shared" si="11"/>
+        <v>535</v>
       </c>
       <c r="P32" s="5">
-        <f>MIN(O32,P31) + P11</f>
-        <v>294</v>
+        <f t="shared" si="12"/>
+        <v>559</v>
       </c>
       <c r="Q32" s="11">
-        <f>MIN(P32,Q31) + Q11</f>
-        <v>368</v>
+        <f t="shared" si="13"/>
+        <v>633</v>
       </c>
       <c r="R32" s="5">
-        <f>MIN(R31) + R11</f>
+        <f t="shared" si="14"/>
         <v>1003</v>
       </c>
       <c r="S32" s="5">
-        <f>MIN(R32,S31) + S11</f>
+        <f t="shared" si="15"/>
         <v>930</v>
       </c>
       <c r="T32" s="6">
-        <f>MIN(S32,T31) + T11</f>
+        <f t="shared" si="27"/>
         <v>972</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>508</v>
       </c>
       <c r="B33" s="5">
-        <f>MIN(A33,B32) + B12</f>
+        <f t="shared" si="7"/>
         <v>489</v>
       </c>
       <c r="C33" s="5">
-        <f>MIN(B33,C32) + C12</f>
+        <f t="shared" si="8"/>
         <v>554</v>
       </c>
       <c r="D33" s="11">
-        <f>MIN(C33,D32) + D12</f>
+        <f t="shared" si="9"/>
         <v>489</v>
       </c>
       <c r="E33" s="5">
-        <f>MIN(,E32) + E12</f>
-        <v>47</v>
+        <f t="shared" si="16"/>
+        <v>568</v>
       </c>
       <c r="F33" s="5">
-        <f>MIN(E33,F32) + F12</f>
-        <v>94</v>
+        <f t="shared" si="18"/>
+        <v>559</v>
       </c>
       <c r="G33" s="5">
-        <f>MIN(F33,G32) + G12</f>
-        <v>85</v>
+        <f t="shared" si="19"/>
+        <v>420</v>
       </c>
       <c r="H33" s="11">
-        <f>MIN(G33,H32) + H12</f>
-        <v>101</v>
+        <f t="shared" si="20"/>
+        <v>417</v>
       </c>
       <c r="I33" s="5">
-        <f>MIN(I32) + I12</f>
-        <v>157</v>
+        <f t="shared" si="21"/>
+        <v>432</v>
       </c>
       <c r="J33" s="5">
-        <f>MIN(I33,J32) + J12</f>
-        <v>168</v>
+        <f t="shared" si="22"/>
+        <v>442</v>
       </c>
       <c r="K33" s="5">
-        <f>MIN(J33,K32) + K12</f>
-        <v>172</v>
+        <f t="shared" si="23"/>
+        <v>437</v>
       </c>
       <c r="L33" s="11">
-        <f>MIN(K33,L32) + L12</f>
-        <v>167</v>
+        <f t="shared" si="24"/>
+        <v>432</v>
       </c>
       <c r="M33" s="5">
-        <f>MIN(M32) + M12</f>
-        <v>200</v>
+        <f t="shared" si="25"/>
+        <v>465</v>
       </c>
       <c r="N33" s="5">
-        <f>MIN(M33,N32) + N12</f>
-        <v>231</v>
+        <f t="shared" si="26"/>
+        <v>496</v>
       </c>
       <c r="O33" s="5">
-        <f>MIN(N33,O32) + O12</f>
-        <v>276</v>
+        <f t="shared" si="11"/>
+        <v>541</v>
       </c>
       <c r="P33" s="5">
-        <f>MIN(O33,P32) + P12</f>
-        <v>338</v>
+        <f t="shared" si="12"/>
+        <v>603</v>
       </c>
       <c r="Q33" s="11">
-        <f>MIN(P33,Q32) + Q12</f>
-        <v>386</v>
+        <f t="shared" si="13"/>
+        <v>651</v>
       </c>
       <c r="R33" s="5">
-        <f>MIN(R32) + R12</f>
+        <f t="shared" si="14"/>
         <v>1036</v>
       </c>
       <c r="S33" s="5">
-        <f>MIN(R33,S32) + S12</f>
+        <f t="shared" si="15"/>
         <v>963</v>
       </c>
       <c r="T33" s="6">
-        <f>MIN(S33,T32) + T12</f>
+        <f t="shared" si="27"/>
         <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>552</v>
       </c>
       <c r="B34" s="5">
-        <f>MIN(A34,B33) + B13</f>
+        <f t="shared" si="7"/>
         <v>547</v>
       </c>
       <c r="C34" s="5">
-        <f>MIN(B34,C33) + C13</f>
+        <f t="shared" si="8"/>
         <v>632</v>
       </c>
       <c r="D34" s="11">
-        <f>MIN(C34,D33) + D13</f>
+        <f t="shared" si="9"/>
         <v>562</v>
       </c>
       <c r="E34" s="5">
-        <f>MIN(,E33) + E13</f>
-        <v>31</v>
+        <f t="shared" si="16"/>
+        <v>599</v>
       </c>
       <c r="F34" s="5">
-        <f>MIN(E34,F33) + F13</f>
-        <v>57</v>
+        <f t="shared" si="18"/>
+        <v>585</v>
       </c>
       <c r="G34" s="5">
-        <f>MIN(F34,G33) + G13</f>
-        <v>66</v>
+        <f t="shared" si="19"/>
+        <v>429</v>
       </c>
       <c r="H34" s="11">
-        <f>MIN(G34,H33) + H13</f>
-        <v>74</v>
+        <f t="shared" si="20"/>
+        <v>425</v>
       </c>
       <c r="I34" s="5">
-        <f>MIN(I33) + I13</f>
-        <v>166</v>
+        <f t="shared" si="21"/>
+        <v>441</v>
       </c>
       <c r="J34" s="5">
-        <f>MIN(I34,J33) + J13</f>
-        <v>185</v>
+        <f t="shared" si="22"/>
+        <v>460</v>
       </c>
       <c r="K34" s="5">
-        <f>MIN(J34,K33) + K13</f>
-        <v>181</v>
+        <f t="shared" si="23"/>
+        <v>446</v>
       </c>
       <c r="L34" s="11">
-        <f>MIN(K34,L33) + L13</f>
-        <v>177</v>
+        <f t="shared" si="24"/>
+        <v>442</v>
       </c>
       <c r="M34" s="5">
-        <f>MIN(M33) + M13</f>
-        <v>213</v>
+        <f t="shared" si="25"/>
+        <v>478</v>
       </c>
       <c r="N34" s="5">
-        <f>MIN(M34,N33) + N13</f>
-        <v>247</v>
+        <f t="shared" si="26"/>
+        <v>512</v>
       </c>
       <c r="O34" s="5">
-        <f>MIN(N34,O33) + O13</f>
-        <v>281</v>
+        <f t="shared" si="11"/>
+        <v>546</v>
       </c>
       <c r="P34" s="5">
-        <f>MIN(O34,P33) + P13</f>
-        <v>341</v>
+        <f t="shared" si="12"/>
+        <v>606</v>
       </c>
       <c r="Q34" s="11">
-        <f>MIN(P34,Q33) + Q13</f>
-        <v>368</v>
+        <f t="shared" si="13"/>
+        <v>633</v>
       </c>
       <c r="R34" s="5">
-        <f>MIN(R33) + R13</f>
+        <f t="shared" si="14"/>
         <v>1080</v>
       </c>
       <c r="S34" s="5">
-        <f>MIN(R34,S33) + S13</f>
+        <f t="shared" si="15"/>
         <v>992</v>
       </c>
       <c r="T34" s="6">
-        <f>MIN(S34,T33) + T13</f>
+        <f t="shared" si="27"/>
         <v>994</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="B35" s="5">
-        <f>MIN(A35,B34) + B14</f>
+        <f t="shared" si="7"/>
         <v>589</v>
       </c>
       <c r="C35" s="5">
-        <f>MIN(B35,C34) + C14</f>
+        <f t="shared" si="8"/>
         <v>634</v>
       </c>
       <c r="D35" s="11">
-        <f>MIN(C35,D34) + D14</f>
+        <f t="shared" si="9"/>
         <v>617</v>
       </c>
       <c r="E35" s="5">
-        <f>MIN(,E34) + E14</f>
-        <v>50</v>
+        <f t="shared" si="16"/>
+        <v>649</v>
       </c>
       <c r="F35" s="5">
-        <f>MIN(E35,F34) + F14</f>
-        <v>59</v>
+        <f t="shared" si="18"/>
+        <v>594</v>
       </c>
       <c r="G35" s="5">
-        <f>MIN(F35,G34) + G14</f>
-        <v>70</v>
+        <f t="shared" si="19"/>
+        <v>440</v>
       </c>
       <c r="H35" s="11">
-        <f>MIN(G35,H34) + H14</f>
-        <v>88</v>
+        <f t="shared" si="20"/>
+        <v>443</v>
       </c>
       <c r="I35" s="5">
-        <f>MIN(I34) + I14</f>
-        <v>190</v>
+        <f t="shared" si="21"/>
+        <v>465</v>
       </c>
       <c r="J35" s="5">
-        <f>MIN(I35,J34) + J14</f>
-        <v>197</v>
+        <f t="shared" si="22"/>
+        <v>472</v>
       </c>
       <c r="K35" s="5">
-        <f>MIN(J35,K34) + K14</f>
-        <v>248</v>
+        <f t="shared" si="23"/>
+        <v>513</v>
       </c>
       <c r="L35" s="11">
-        <f>MIN(K35,L34) + L14</f>
-        <v>256</v>
+        <f t="shared" si="24"/>
+        <v>521</v>
       </c>
       <c r="M35" s="5">
-        <f>MIN(M34) + M14</f>
-        <v>262</v>
+        <f t="shared" si="25"/>
+        <v>527</v>
       </c>
       <c r="N35" s="5">
-        <f>MIN(M35,N34) + N14</f>
-        <v>325</v>
+        <f t="shared" si="26"/>
+        <v>590</v>
       </c>
       <c r="O35" s="5">
-        <f>MIN(N35,O34) + O14</f>
-        <v>332</v>
+        <f t="shared" si="11"/>
+        <v>597</v>
       </c>
       <c r="P35" s="5">
-        <f>MIN(O35,P34) + P14</f>
-        <v>386</v>
+        <f t="shared" si="12"/>
+        <v>651</v>
       </c>
       <c r="Q35" s="11">
-        <f>MIN(P35,Q34) + Q14</f>
-        <v>414</v>
+        <f t="shared" si="13"/>
+        <v>679</v>
       </c>
       <c r="R35" s="5">
-        <f>MIN(R34) + R14</f>
+        <f t="shared" si="14"/>
         <v>1097</v>
       </c>
       <c r="S35" s="5">
-        <f>MIN(R35,S34) + S14</f>
+        <f t="shared" si="15"/>
         <v>1033</v>
       </c>
       <c r="T35" s="6">
-        <f>MIN(S35,T34) + T14</f>
+        <f t="shared" si="27"/>
         <v>1054</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>625</v>
       </c>
       <c r="B36" s="5">
-        <f>MIN(A36,B35) + B15</f>
+        <f t="shared" si="7"/>
         <v>665</v>
       </c>
       <c r="C36" s="5">
-        <f>MIN(B36,C35) + C15</f>
+        <f t="shared" si="8"/>
         <v>724</v>
       </c>
       <c r="D36" s="5">
-        <f>MIN(C36,D35) + D15</f>
+        <f t="shared" si="9"/>
         <v>690</v>
       </c>
       <c r="E36" s="5">
-        <f>MIN(D36,E35) + E15</f>
-        <v>101</v>
+        <f t="shared" ref="E36:E41" si="28">MIN(D36,E35) + E15</f>
+        <v>700</v>
       </c>
       <c r="F36" s="5">
-        <f>MIN(E36,F35) + F15</f>
-        <v>113</v>
+        <f t="shared" si="18"/>
+        <v>648</v>
       </c>
       <c r="G36" s="5">
-        <f>MIN(F36,G35) + G15</f>
-        <v>83</v>
+        <f t="shared" si="19"/>
+        <v>453</v>
       </c>
       <c r="H36" s="11">
-        <f>MIN(G36,H35) + H15</f>
-        <v>160</v>
+        <f t="shared" si="20"/>
+        <v>520</v>
       </c>
       <c r="I36" s="5">
-        <f>MIN(I35) + I15</f>
-        <v>239</v>
+        <f t="shared" si="21"/>
+        <v>514</v>
       </c>
       <c r="J36" s="5">
-        <f>MIN(I36,J35) + J15</f>
-        <v>271</v>
+        <f t="shared" si="22"/>
+        <v>546</v>
       </c>
       <c r="K36" s="5">
-        <f>MIN(J36,K35) + K15</f>
-        <v>260</v>
+        <f t="shared" si="23"/>
+        <v>525</v>
       </c>
       <c r="L36" s="11">
-        <f>MIN(K36,L35) + L15</f>
-        <v>288</v>
+        <f t="shared" si="24"/>
+        <v>553</v>
       </c>
       <c r="M36" s="5">
-        <f>MIN(M35) + M15</f>
-        <v>320</v>
+        <f t="shared" si="25"/>
+        <v>585</v>
       </c>
       <c r="N36" s="5">
-        <f>MIN(M36,N35) + N15</f>
-        <v>337</v>
+        <f t="shared" si="26"/>
+        <v>602</v>
       </c>
       <c r="O36" s="5">
-        <f>MIN(N36,O35) + O15</f>
-        <v>402</v>
+        <f t="shared" si="11"/>
+        <v>667</v>
       </c>
       <c r="P36" s="5">
-        <f>MIN(O36,P35) + P15</f>
-        <v>413</v>
+        <f t="shared" si="12"/>
+        <v>678</v>
       </c>
       <c r="Q36" s="5">
-        <f>MIN(P36,Q35) + Q15</f>
-        <v>422</v>
+        <f t="shared" si="13"/>
+        <v>687</v>
       </c>
       <c r="R36" s="5">
-        <f>MIN(Q36,R35) + R15</f>
-        <v>502</v>
+        <f t="shared" ref="R36:R41" si="29">MIN(Q36,R35) + R15</f>
+        <v>767</v>
       </c>
       <c r="S36" s="5">
-        <f>MIN(R36,S35) + S15</f>
-        <v>582</v>
+        <f t="shared" si="15"/>
+        <v>847</v>
       </c>
       <c r="T36" s="6">
-        <f>MIN(S36,T35) + T15</f>
-        <v>637</v>
+        <f t="shared" si="27"/>
+        <v>902</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>696</v>
       </c>
       <c r="B37" s="5">
-        <f>MIN(A37,B36) + B16</f>
+        <f t="shared" si="7"/>
         <v>757</v>
       </c>
       <c r="C37" s="5">
-        <f>MIN(B37,C36) + C16</f>
+        <f t="shared" si="8"/>
         <v>757</v>
       </c>
       <c r="D37" s="5">
-        <f>MIN(C37,D36) + D16</f>
+        <f t="shared" si="9"/>
         <v>776</v>
       </c>
       <c r="E37" s="5">
-        <f>MIN(D37,E36) + E16</f>
-        <v>151</v>
+        <f t="shared" si="28"/>
+        <v>750</v>
       </c>
       <c r="F37" s="5">
-        <f>MIN(E37,F36) + F16</f>
-        <v>148</v>
+        <f t="shared" si="18"/>
+        <v>683</v>
       </c>
       <c r="G37" s="5">
-        <f>MIN(F37,G36) + G16</f>
-        <v>97</v>
+        <f t="shared" si="19"/>
+        <v>467</v>
       </c>
       <c r="H37" s="11">
-        <f>MIN(G37,H36) + H16</f>
-        <v>172</v>
+        <f t="shared" si="20"/>
+        <v>542</v>
       </c>
       <c r="I37" s="5">
-        <f>MIN(I36) + I16</f>
-        <v>279</v>
+        <f t="shared" si="21"/>
+        <v>554</v>
       </c>
       <c r="J37" s="5">
-        <f>MIN(I37,J36) + J16</f>
-        <v>319</v>
+        <f t="shared" si="22"/>
+        <v>594</v>
       </c>
       <c r="K37" s="5">
-        <f>MIN(J37,K36) + K16</f>
-        <v>271</v>
+        <f t="shared" si="23"/>
+        <v>536</v>
       </c>
       <c r="L37" s="11">
-        <f>MIN(K37,L36) + L16</f>
-        <v>322</v>
+        <f t="shared" si="24"/>
+        <v>587</v>
       </c>
       <c r="M37" s="5">
-        <f>MIN(M36) + M16</f>
-        <v>335</v>
+        <f t="shared" si="25"/>
+        <v>600</v>
       </c>
       <c r="N37" s="5">
-        <f>MIN(M37,N36) + N16</f>
-        <v>345</v>
+        <f t="shared" si="26"/>
+        <v>610</v>
       </c>
       <c r="O37" s="5">
-        <f>MIN(N37,O36) + O16</f>
-        <v>360</v>
+        <f t="shared" si="11"/>
+        <v>625</v>
       </c>
       <c r="P37" s="5">
-        <f>MIN(O37,P36) + P16</f>
-        <v>400</v>
+        <f t="shared" si="12"/>
+        <v>665</v>
       </c>
       <c r="Q37" s="5">
-        <f>MIN(P37,Q36) + Q16</f>
-        <v>439</v>
+        <f t="shared" si="13"/>
+        <v>704</v>
       </c>
       <c r="R37" s="5">
-        <f>MIN(Q37,R36) + R16</f>
-        <v>491</v>
+        <f t="shared" si="29"/>
+        <v>756</v>
       </c>
       <c r="S37" s="5">
-        <f>MIN(R37,S36) + S16</f>
-        <v>534</v>
+        <f t="shared" si="15"/>
+        <v>799</v>
       </c>
       <c r="T37" s="6">
-        <f>MIN(S37,T36) + T16</f>
-        <v>549</v>
+        <f t="shared" si="27"/>
+        <v>814</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>738</v>
       </c>
       <c r="B38" s="5">
-        <f>MIN(A38,B37) + B17</f>
+        <f t="shared" si="7"/>
         <v>831</v>
       </c>
       <c r="C38" s="5">
-        <f>MIN(B38,C37) + C17</f>
+        <f t="shared" si="8"/>
         <v>819</v>
       </c>
       <c r="D38" s="5">
-        <f>MIN(C38,D37) + D17</f>
+        <f t="shared" si="9"/>
         <v>850</v>
       </c>
       <c r="E38" s="5">
-        <f>MIN(D38,E37) + E17</f>
-        <v>212</v>
+        <f t="shared" si="28"/>
+        <v>811</v>
       </c>
       <c r="F38" s="5">
-        <f>MIN(E38,F37) + F17</f>
-        <v>218</v>
+        <f t="shared" si="18"/>
+        <v>753</v>
       </c>
       <c r="G38" s="5">
-        <f>MIN(F38,G37) + G17</f>
-        <v>121</v>
+        <f t="shared" si="19"/>
+        <v>491</v>
       </c>
       <c r="H38" s="11">
-        <f>MIN(G38,H37) + H17</f>
-        <v>173</v>
+        <f t="shared" si="20"/>
+        <v>543</v>
       </c>
       <c r="I38" s="5">
-        <f>MIN(I37) + I17</f>
-        <v>319</v>
+        <f t="shared" si="21"/>
+        <v>594</v>
       </c>
       <c r="J38" s="5">
-        <f>MIN(I38,J37) + J17</f>
-        <v>339</v>
+        <f t="shared" si="22"/>
+        <v>614</v>
       </c>
       <c r="K38" s="5">
-        <f>MIN(J38,K37) + K17</f>
-        <v>286</v>
+        <f t="shared" si="23"/>
+        <v>551</v>
       </c>
       <c r="L38" s="11">
-        <f>MIN(K38,L37) + L17</f>
-        <v>354</v>
+        <f t="shared" si="24"/>
+        <v>619</v>
       </c>
       <c r="M38" s="5">
-        <f>MIN(M37) + M17</f>
-        <v>396</v>
+        <f t="shared" si="25"/>
+        <v>661</v>
       </c>
       <c r="N38" s="5">
-        <f>MIN(M38,N37) + N17</f>
-        <v>416</v>
+        <f t="shared" si="26"/>
+        <v>681</v>
       </c>
       <c r="O38" s="5">
-        <f>MIN(N38,O37) + O17</f>
-        <v>374</v>
+        <f t="shared" si="11"/>
+        <v>639</v>
       </c>
       <c r="P38" s="5">
-        <f>MIN(O38,P37) + P17</f>
-        <v>434</v>
+        <f t="shared" si="12"/>
+        <v>699</v>
       </c>
       <c r="Q38" s="5">
-        <f>MIN(P38,Q37) + Q17</f>
-        <v>457</v>
+        <f t="shared" si="13"/>
+        <v>722</v>
       </c>
       <c r="R38" s="5">
-        <f>MIN(Q38,R37) + R17</f>
-        <v>519</v>
+        <f t="shared" si="29"/>
+        <v>784</v>
       </c>
       <c r="S38" s="5">
-        <f>MIN(R38,S37) + S17</f>
-        <v>537</v>
+        <f t="shared" si="15"/>
+        <v>802</v>
       </c>
       <c r="T38" s="6">
-        <f>MIN(S38,T37) + T17</f>
-        <v>615</v>
+        <f t="shared" si="27"/>
+        <v>880</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>783</v>
       </c>
       <c r="B39" s="5">
-        <f>MIN(A39,B38) + B18</f>
+        <f t="shared" si="7"/>
         <v>842</v>
       </c>
       <c r="C39" s="5">
-        <f>MIN(B39,C38) + C18</f>
+        <f t="shared" si="8"/>
         <v>852</v>
       </c>
       <c r="D39" s="5">
-        <f>MIN(C39,D38) + D18</f>
+        <f t="shared" si="9"/>
         <v>923</v>
       </c>
       <c r="E39" s="5">
-        <f>MIN(D39,E38) + E18</f>
-        <v>293</v>
+        <f t="shared" si="28"/>
+        <v>892</v>
       </c>
       <c r="F39" s="5">
-        <f>MIN(E39,F38) + F18</f>
-        <v>252</v>
+        <f t="shared" si="18"/>
+        <v>787</v>
       </c>
       <c r="G39" s="5">
-        <f>MIN(F39,G38) + G18</f>
-        <v>146</v>
+        <f t="shared" si="19"/>
+        <v>516</v>
       </c>
       <c r="H39" s="5">
-        <f>MIN(G39,H38) + H18</f>
-        <v>218</v>
+        <f t="shared" si="20"/>
+        <v>588</v>
       </c>
       <c r="I39" s="5">
         <f>MIN(H39,I38) + I18</f>
-        <v>223</v>
+        <v>593</v>
       </c>
       <c r="J39" s="5">
-        <f>MIN(I39,J38) + J18</f>
-        <v>261</v>
+        <f t="shared" si="22"/>
+        <v>631</v>
       </c>
       <c r="K39" s="5">
-        <f>MIN(J39,K38) + K18</f>
-        <v>306</v>
+        <f t="shared" si="23"/>
+        <v>596</v>
       </c>
       <c r="L39" s="5">
-        <f>MIN(K39,L38) + L18</f>
-        <v>317</v>
+        <f t="shared" si="24"/>
+        <v>607</v>
       </c>
       <c r="M39" s="5">
         <f>MIN(L39,M38) + M18</f>
-        <v>353</v>
+        <v>643</v>
       </c>
       <c r="N39" s="5">
-        <f>MIN(M39,N38) + N18</f>
-        <v>421</v>
+        <f t="shared" si="26"/>
+        <v>711</v>
       </c>
       <c r="O39" s="5">
-        <f>MIN(N39,O38) + O18</f>
-        <v>414</v>
+        <f t="shared" si="11"/>
+        <v>679</v>
       </c>
       <c r="P39" s="5">
-        <f>MIN(O39,P38) + P18</f>
-        <v>442</v>
+        <f t="shared" si="12"/>
+        <v>707</v>
       </c>
       <c r="Q39" s="5">
-        <f>MIN(P39,Q38) + Q18</f>
-        <v>514</v>
+        <f t="shared" si="13"/>
+        <v>779</v>
       </c>
       <c r="R39" s="5">
-        <f>MIN(Q39,R38) + R18</f>
-        <v>563</v>
+        <f t="shared" si="29"/>
+        <v>828</v>
       </c>
       <c r="S39" s="5">
-        <f>MIN(R39,S38) + S18</f>
-        <v>601</v>
+        <f t="shared" si="15"/>
+        <v>866</v>
       </c>
       <c r="T39" s="6">
-        <f>MIN(S39,T38) + T18</f>
-        <v>659</v>
+        <f t="shared" si="27"/>
+        <v>924</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>851</v>
       </c>
       <c r="B40" s="5">
-        <f>MIN(A40,B39) + B19</f>
+        <f t="shared" si="7"/>
         <v>874</v>
       </c>
       <c r="C40" s="5">
-        <f>MIN(B40,C39) + C19</f>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="D40" s="5">
-        <f>MIN(C40,D39) + D19</f>
+        <f t="shared" si="9"/>
         <v>934</v>
       </c>
       <c r="E40" s="5">
-        <f>MIN(D40,E39) + E19</f>
-        <v>332</v>
+        <f t="shared" si="28"/>
+        <v>931</v>
       </c>
       <c r="F40" s="5">
-        <f>MIN(E40,F39) + F19</f>
-        <v>283</v>
+        <f t="shared" si="18"/>
+        <v>818</v>
       </c>
       <c r="G40" s="5">
-        <f>MIN(F40,G39) + G19</f>
-        <v>176</v>
+        <f t="shared" si="19"/>
+        <v>546</v>
       </c>
       <c r="H40" s="5">
-        <f>MIN(G40,H39) + H19</f>
-        <v>238</v>
+        <f t="shared" si="20"/>
+        <v>608</v>
       </c>
       <c r="I40" s="5">
         <f>MIN(H40,I39) + I19</f>
-        <v>236</v>
+        <v>606</v>
       </c>
       <c r="J40" s="5">
-        <f>MIN(I40,J39) + J19</f>
-        <v>272</v>
+        <f t="shared" si="22"/>
+        <v>642</v>
       </c>
       <c r="K40" s="5">
-        <f>MIN(J40,K39) + K19</f>
-        <v>311</v>
+        <f t="shared" si="23"/>
+        <v>635</v>
       </c>
       <c r="L40" s="5">
-        <f>MIN(K40,L39) + L19</f>
-        <v>373</v>
+        <f t="shared" si="24"/>
+        <v>669</v>
       </c>
       <c r="M40" s="5">
         <f>MIN(L40,M39) + M19</f>
-        <v>384</v>
+        <v>674</v>
       </c>
       <c r="N40" s="5">
-        <f>MIN(M40,N39) + N19</f>
-        <v>464</v>
+        <f t="shared" si="26"/>
+        <v>754</v>
       </c>
       <c r="O40" s="5">
-        <f>MIN(N40,O39) + O19</f>
-        <v>470</v>
+        <f t="shared" si="11"/>
+        <v>735</v>
       </c>
       <c r="P40" s="5">
-        <f>MIN(O40,P39) + P19</f>
-        <v>492</v>
+        <f t="shared" si="12"/>
+        <v>757</v>
       </c>
       <c r="Q40" s="5">
-        <f>MIN(P40,Q39) + Q19</f>
-        <v>528</v>
+        <f t="shared" si="13"/>
+        <v>793</v>
       </c>
       <c r="R40" s="5">
-        <f>MIN(Q40,R39) + R19</f>
-        <v>579</v>
+        <f t="shared" si="29"/>
+        <v>844</v>
       </c>
       <c r="S40" s="5">
-        <f>MIN(R40,S39) + S19</f>
-        <v>652</v>
+        <f t="shared" si="15"/>
+        <v>917</v>
       </c>
       <c r="T40" s="6">
-        <f>MIN(S40,T39) + T19</f>
-        <v>719</v>
+        <f t="shared" si="27"/>
+        <v>984</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>925</v>
       </c>
       <c r="B41" s="8">
-        <f>MIN(A41,B40) + B20</f>
+        <f t="shared" si="7"/>
         <v>969</v>
       </c>
       <c r="C41" s="8">
-        <f>MIN(B41,C40) + C20</f>
+        <f t="shared" si="8"/>
         <v>944</v>
       </c>
       <c r="D41" s="8">
-        <f>MIN(C41,D40) + D20</f>
+        <f t="shared" si="9"/>
         <v>970</v>
       </c>
       <c r="E41" s="8">
-        <f>MIN(D41,E40) + E20</f>
-        <v>391</v>
+        <f t="shared" si="28"/>
+        <v>990</v>
       </c>
       <c r="F41" s="8">
-        <f>MIN(E41,F40) + F20</f>
-        <v>290</v>
+        <f t="shared" si="18"/>
+        <v>825</v>
       </c>
       <c r="G41" s="8">
-        <f>MIN(F41,G40) + G20</f>
-        <v>251</v>
+        <f t="shared" si="19"/>
+        <v>621</v>
       </c>
       <c r="H41" s="8">
-        <f>MIN(G41,H40) + H20</f>
-        <v>310</v>
+        <f t="shared" si="20"/>
+        <v>680</v>
       </c>
       <c r="I41" s="8">
         <f>MIN(H41,I40) + I20</f>
-        <v>268</v>
+        <v>638</v>
       </c>
       <c r="J41" s="8">
-        <f>MIN(I41,J40) + J20</f>
-        <v>339</v>
+        <f t="shared" si="22"/>
+        <v>709</v>
       </c>
       <c r="K41" s="8">
-        <f>MIN(J41,K40) + K20</f>
-        <v>348</v>
+        <f t="shared" si="23"/>
+        <v>672</v>
       </c>
       <c r="L41" s="8">
-        <f>MIN(K41,L40) + L20</f>
-        <v>403</v>
+        <f t="shared" si="24"/>
+        <v>724</v>
       </c>
       <c r="M41" s="8">
         <f>MIN(L41,M40) + M20</f>
-        <v>411</v>
+        <v>701</v>
       </c>
       <c r="N41" s="8">
-        <f>MIN(M41,N40) + N20</f>
-        <v>456</v>
+        <f t="shared" si="26"/>
+        <v>746</v>
       </c>
       <c r="O41" s="8">
-        <f>MIN(N41,O40) + O20</f>
-        <v>523</v>
+        <f t="shared" si="11"/>
+        <v>802</v>
       </c>
       <c r="P41" s="8">
-        <f>MIN(O41,P40) + P20</f>
-        <v>528</v>
+        <f t="shared" si="12"/>
+        <v>793</v>
       </c>
       <c r="Q41" s="8">
-        <f>MIN(P41,Q40) + Q20</f>
-        <v>578</v>
+        <f t="shared" si="13"/>
+        <v>843</v>
       </c>
       <c r="R41" s="8">
-        <f>MIN(Q41,R40) + R20</f>
-        <v>608</v>
+        <f t="shared" si="29"/>
+        <v>873</v>
       </c>
       <c r="S41" s="8">
-        <f>MIN(R41,S40) + S20</f>
-        <v>626</v>
+        <f t="shared" si="15"/>
+        <v>891</v>
       </c>
       <c r="T41" s="9">
-        <f>MIN(S41,T40) + T20</f>
-        <v>637</v>
+        <f t="shared" si="27"/>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
